--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="N2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="O2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q2">
-        <v>0.865923746154</v>
+        <v>0.4961658814279999</v>
       </c>
       <c r="R2">
-        <v>7.793313715386001</v>
+        <v>4.465492932851999</v>
       </c>
       <c r="S2">
-        <v>0.00163887496287058</v>
+        <v>0.0003418727455532763</v>
       </c>
       <c r="T2">
-        <v>0.00163887496287058</v>
+        <v>0.0003418727455532762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P3">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q3">
-        <v>0.4846450347386667</v>
+        <v>0.1936569886906666</v>
       </c>
       <c r="R3">
-        <v>4.361805312647999</v>
+        <v>1.742912898216</v>
       </c>
       <c r="S3">
-        <v>0.0009172546853467237</v>
+        <v>0.0001334353064114613</v>
       </c>
       <c r="T3">
-        <v>0.0009172546853467234</v>
+        <v>0.0001334353064114613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="N4">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="O4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q4">
-        <v>35.42001051834933</v>
+        <v>35.764039770228</v>
       </c>
       <c r="R4">
-        <v>318.7800946651439</v>
+        <v>321.876357932052</v>
       </c>
       <c r="S4">
-        <v>0.06703704417503249</v>
+        <v>0.02464246520364313</v>
       </c>
       <c r="T4">
-        <v>0.06703704417503249</v>
+        <v>0.02464246520364312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>105.8801323333333</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>317.640397</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.8234679448457706</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.8234679448457706</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09677100000000001</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N5">
-        <v>0.290313</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q5">
-        <v>10.246126286029</v>
+        <v>0.1115776710953333</v>
       </c>
       <c r="R5">
-        <v>92.21513657426101</v>
+        <v>1.004199039858</v>
       </c>
       <c r="S5">
-        <v>0.0193921461458532</v>
+        <v>7.688026562813434E-05</v>
       </c>
       <c r="T5">
-        <v>0.0193921461458532</v>
+        <v>7.688026562813433E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05416133333333333</v>
+        <v>0.138766</v>
       </c>
       <c r="N6">
-        <v>0.162484</v>
+        <v>0.416298</v>
       </c>
       <c r="O6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q6">
-        <v>5.734609140683111</v>
+        <v>14.69256244336733</v>
       </c>
       <c r="R6">
-        <v>51.61148226614799</v>
+        <v>132.233061990306</v>
       </c>
       <c r="S6">
-        <v>0.01085350457734518</v>
+        <v>0.01012360351596615</v>
       </c>
       <c r="T6">
-        <v>0.01085350457734518</v>
+        <v>0.01012360351596615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.958350666666666</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N7">
-        <v>11.875052</v>
+        <v>0.162484</v>
       </c>
       <c r="O7">
-        <v>0.9632703969686844</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P7">
-        <v>0.9632703969686844</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q7">
-        <v>419.1106924084048</v>
+        <v>5.734609140683111</v>
       </c>
       <c r="R7">
-        <v>3771.996231675644</v>
+        <v>51.61148226614799</v>
       </c>
       <c r="S7">
-        <v>0.7932222941225722</v>
+        <v>0.003951312746369772</v>
       </c>
       <c r="T7">
-        <v>0.7932222941225722</v>
+        <v>0.003951312746369773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.635153</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H8">
-        <v>40.905459</v>
+        <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.1060454985380935</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.1060454985380935</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09677100000000001</v>
+        <v>10.002366</v>
       </c>
       <c r="N8">
-        <v>0.290313</v>
+        <v>30.007098</v>
       </c>
       <c r="O8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q8">
-        <v>1.319487390963</v>
+        <v>1059.051835726434</v>
       </c>
       <c r="R8">
-        <v>11.875386518667</v>
+        <v>9531.466521537906</v>
       </c>
       <c r="S8">
-        <v>0.002497304016060672</v>
+        <v>0.7297175648615674</v>
       </c>
       <c r="T8">
-        <v>0.002497304016060672</v>
+        <v>0.7297175648615674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.635153</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H9">
-        <v>40.905459</v>
+        <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.1060454985380935</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.1060454985380935</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05416133333333333</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N9">
-        <v>0.162484</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q9">
-        <v>0.738498066684</v>
+        <v>3.304060116216556</v>
       </c>
       <c r="R9">
-        <v>6.646482600155999</v>
+        <v>29.736541045949</v>
       </c>
       <c r="S9">
-        <v>0.001397705048501452</v>
+        <v>0.002276593666926584</v>
       </c>
       <c r="T9">
-        <v>0.001397705048501452</v>
+        <v>0.002276593666926584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.958350666666666</v>
+        <v>0.138766</v>
       </c>
       <c r="N10">
-        <v>11.875052</v>
+        <v>0.416298</v>
       </c>
       <c r="O10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q10">
-        <v>53.972716967652</v>
+        <v>4.490648525842666</v>
       </c>
       <c r="R10">
-        <v>485.7544527088679</v>
+        <v>40.415836732584</v>
       </c>
       <c r="S10">
-        <v>0.1021504894735314</v>
+        <v>0.003094187646329299</v>
       </c>
       <c r="T10">
-        <v>0.1021504894735313</v>
+        <v>0.003094187646329299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1148696666666667</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>0.3446090000000001</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.0008933827928862467</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.0008933827928862467</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09677100000000001</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N11">
-        <v>0.290313</v>
+        <v>0.162484</v>
       </c>
       <c r="O11">
-        <v>0.02354936372111632</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P11">
-        <v>0.02354936372111632</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q11">
-        <v>0.011116052513</v>
+        <v>1.752731300830222</v>
       </c>
       <c r="R11">
-        <v>0.100044472617</v>
+        <v>15.774581707472</v>
       </c>
       <c r="S11">
-        <v>2.103859633186495E-05</v>
+        <v>0.001207682923113178</v>
       </c>
       <c r="T11">
-        <v>2.103859633186495E-05</v>
+        <v>0.001207682923113178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1148696666666667</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>0.3446090000000001</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.0008933827928862467</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.0008933827928862467</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05416133333333333</v>
+        <v>10.002366</v>
       </c>
       <c r="N12">
-        <v>0.162484</v>
+        <v>30.007098</v>
       </c>
       <c r="O12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q12">
-        <v>0.006221494306222223</v>
+        <v>323.689593508776</v>
       </c>
       <c r="R12">
-        <v>0.05599344875600001</v>
+        <v>2913.206341578984</v>
       </c>
       <c r="S12">
-        <v>1.177499900585487E-05</v>
+        <v>0.223031558964474</v>
       </c>
       <c r="T12">
-        <v>1.177499900585487E-05</v>
+        <v>0.223031558964474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>32.36130266666667</v>
+      </c>
+      <c r="H13">
+        <v>97.08390800000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2280292497513723</v>
+      </c>
+      <c r="J13">
+        <v>0.2280292497513723</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q13">
+        <v>1.009856023915111</v>
+      </c>
+      <c r="R13">
+        <v>9.088704215236001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006958202174557888</v>
+      </c>
+      <c r="T13">
+        <v>0.0006958202174557888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1003386666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.301016</v>
+      </c>
+      <c r="I14">
+        <v>0.000707021936561918</v>
+      </c>
+      <c r="J14">
+        <v>0.0007070219365619179</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138766</v>
+      </c>
+      <c r="N14">
+        <v>0.416298</v>
+      </c>
+      <c r="O14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q14">
+        <v>0.01392359541866667</v>
+      </c>
+      <c r="R14">
+        <v>0.125312358768</v>
+      </c>
+      <c r="S14">
+        <v>9.593762836035197E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.593762836035197E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1003386666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.301016</v>
+      </c>
+      <c r="I15">
+        <v>0.000707021936561918</v>
+      </c>
+      <c r="J15">
+        <v>0.0007070219365619179</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.162484</v>
+      </c>
+      <c r="O15">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P15">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q15">
+        <v>0.005434475971555556</v>
+      </c>
+      <c r="R15">
+        <v>0.048910283744</v>
+      </c>
+      <c r="S15">
+        <v>3.744512249999623E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.744512249999623E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.1148696666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.3446090000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.0008933827928862467</v>
-      </c>
-      <c r="J13">
-        <v>0.0008933827928862467</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="N13">
-        <v>11.875052</v>
-      </c>
-      <c r="O13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="P13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="Q13">
-        <v>0.4546944216297778</v>
-      </c>
-      <c r="R13">
-        <v>4.092249794668</v>
-      </c>
-      <c r="S13">
-        <v>0.0008605691975485268</v>
-      </c>
-      <c r="T13">
-        <v>0.0008605691975485268</v>
+      <c r="G16">
+        <v>0.1003386666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.301016</v>
+      </c>
+      <c r="I16">
+        <v>0.000707021936561918</v>
+      </c>
+      <c r="J16">
+        <v>0.0007070219365619179</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.002366</v>
+      </c>
+      <c r="N16">
+        <v>30.007098</v>
+      </c>
+      <c r="O16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q16">
+        <v>1.003624067952</v>
+      </c>
+      <c r="R16">
+        <v>9.032616611568001</v>
+      </c>
+      <c r="S16">
+        <v>0.0006915262182611161</v>
+      </c>
+      <c r="T16">
+        <v>0.000691526218261116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1003386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.301016</v>
+      </c>
+      <c r="I17">
+        <v>0.000707021936561918</v>
+      </c>
+      <c r="J17">
+        <v>0.0007070219365619179</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q17">
+        <v>0.003131134985777778</v>
+      </c>
+      <c r="R17">
+        <v>0.028180214872</v>
+      </c>
+      <c r="S17">
+        <v>2.157443214767083E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.157443214767083E-06</v>
       </c>
     </row>
   </sheetData>
